--- a/dataExcel/【M4A1 消音型（StatTrak™） _ 夜无眠 (略有磨损)】悠悠有品近1个月-总览.xlsx
+++ b/dataExcel/【M4A1 消音型（StatTrak™） _ 夜无眠 (略有磨损)】悠悠有品近1个月-总览.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I205"/>
+  <dimension ref="A1:I204"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,16 +431,16 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2023-09-16 13:37:41</v>
+        <v>2023-09-19 11:12:38</v>
       </c>
       <c r="B8">
-        <v>24.29</v>
+        <v>23.9</v>
       </c>
       <c r="C8">
-        <v>27.89</v>
+        <v>30.03</v>
       </c>
       <c r="D8">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E8">
         <v>0.03</v>
@@ -449,10 +449,10 @@
         <v>0.02</v>
       </c>
       <c r="G8">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H8">
-        <v>23</v>
+        <v>21.4</v>
       </c>
       <c r="I8">
         <v>7</v>
@@ -460,16 +460,16 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2023-09-16 17:31:21</v>
+        <v>2023-09-19 14:55:22</v>
       </c>
       <c r="B9">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="C9">
-        <v>27.89</v>
+        <v>30.03</v>
       </c>
       <c r="D9">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E9">
         <v>0.03</v>
@@ -478,27 +478,27 @@
         <v>0.02</v>
       </c>
       <c r="G9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H9">
-        <v>23.2</v>
+        <v>21.8</v>
       </c>
       <c r="I9">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2023-09-16 21:13:06</v>
+        <v>2023-09-19 18:35:10</v>
       </c>
       <c r="B10">
-        <v>23.89</v>
+        <v>24</v>
       </c>
       <c r="C10">
-        <v>27.89</v>
+        <v>30.03</v>
       </c>
       <c r="D10">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E10">
         <v>0.03</v>
@@ -507,27 +507,27 @@
         <v>0.02</v>
       </c>
       <c r="G10">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H10">
-        <v>23.2</v>
+        <v>21.8</v>
       </c>
       <c r="I10">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2023-09-17 00:56:28</v>
+        <v>2023-09-19 22:12:18</v>
       </c>
       <c r="B11">
         <v>23.9</v>
       </c>
       <c r="C11">
-        <v>27.89</v>
+        <v>30.03</v>
       </c>
       <c r="D11">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E11">
         <v>0.03</v>
@@ -536,27 +536,27 @@
         <v>0.02</v>
       </c>
       <c r="G11">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H11">
-        <v>23.2</v>
+        <v>21.8</v>
       </c>
       <c r="I11">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2023-09-17 04:34:20</v>
+        <v>2023-09-20 01:54:04</v>
       </c>
       <c r="B12">
-        <v>24.29</v>
+        <v>23.9</v>
       </c>
       <c r="C12">
-        <v>30.29</v>
+        <v>30.03</v>
       </c>
       <c r="D12">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E12">
         <v>0.03</v>
@@ -565,27 +565,27 @@
         <v>0.02</v>
       </c>
       <c r="G12">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H12">
-        <v>23.2</v>
+        <v>22</v>
       </c>
       <c r="I12">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2023-09-17 08:10:36</v>
+        <v>2023-09-20 05:28:41</v>
       </c>
       <c r="B13">
-        <v>24.29</v>
+        <v>23.8</v>
       </c>
       <c r="C13">
-        <v>30.29</v>
+        <v>28.99</v>
       </c>
       <c r="D13">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E13">
         <v>0.03</v>
@@ -594,27 +594,27 @@
         <v>0.02</v>
       </c>
       <c r="G13">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H13">
-        <v>23.2</v>
+        <v>22</v>
       </c>
       <c r="I13">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2023-09-17 11:55:14</v>
+        <v>2023-09-20 09:06:27</v>
       </c>
       <c r="B14">
-        <v>24.5</v>
+        <v>23.9</v>
       </c>
       <c r="C14">
-        <v>30.29</v>
+        <v>28.99</v>
       </c>
       <c r="D14">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E14">
         <v>0.03</v>
@@ -623,114 +623,114 @@
         <v>0.02</v>
       </c>
       <c r="G14">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H14">
-        <v>23.2</v>
+        <v>22</v>
       </c>
       <c r="I14">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2023-09-17 15:30:39</v>
+        <v>2023-09-20 09:13:10</v>
       </c>
       <c r="B15">
-        <v>24.4</v>
+        <v>23.9</v>
       </c>
       <c r="C15">
-        <v>30.29</v>
+        <v>28.99</v>
       </c>
       <c r="D15">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E15">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F15">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G15">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H15">
-        <v>23.2</v>
+        <v>22.2</v>
       </c>
       <c r="I15">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2023-09-17 19:10:22</v>
+        <v>2023-09-20 12:52:57</v>
       </c>
       <c r="B16">
-        <v>24.4</v>
+        <v>23.9</v>
       </c>
       <c r="C16">
-        <v>30.29</v>
+        <v>28.99</v>
       </c>
       <c r="D16">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E16">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F16">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G16">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H16">
-        <v>23</v>
+        <v>22.2</v>
       </c>
       <c r="I16">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2023-09-17 22:51:55</v>
+        <v>2023-09-20 16:29:16</v>
       </c>
       <c r="B17">
-        <v>24.4</v>
+        <v>23.9</v>
       </c>
       <c r="C17">
-        <v>30.29</v>
+        <v>28.99</v>
       </c>
       <c r="D17">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E17">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F17">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G17">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H17">
-        <v>23</v>
+        <v>22.2</v>
       </c>
       <c r="I17">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2023-09-18 02:27:59</v>
+        <v>2023-09-20 20:06:13</v>
       </c>
       <c r="B18">
-        <v>24.5</v>
+        <v>24.9</v>
       </c>
       <c r="C18">
-        <v>30.49</v>
+        <v>28.99</v>
       </c>
       <c r="D18">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E18">
         <v>0.03</v>
@@ -739,27 +739,27 @@
         <v>0.02</v>
       </c>
       <c r="G18">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H18">
-        <v>23</v>
+        <v>22.2</v>
       </c>
       <c r="I18">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2023-09-18 06:03:06</v>
+        <v>2023-09-20 23:44:51</v>
       </c>
       <c r="B19">
-        <v>24.5</v>
+        <v>25</v>
       </c>
       <c r="C19">
-        <v>30.49</v>
+        <v>28.99</v>
       </c>
       <c r="D19">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E19">
         <v>0.03</v>
@@ -768,10 +768,10 @@
         <v>0.02</v>
       </c>
       <c r="G19">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H19">
-        <v>23</v>
+        <v>22.2</v>
       </c>
       <c r="I19">
         <v>8</v>
@@ -779,16 +779,16 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2023-09-18 09:45:16</v>
+        <v>2023-09-21 03:26:10</v>
       </c>
       <c r="B20">
-        <v>24.2</v>
+        <v>25</v>
       </c>
       <c r="C20">
-        <v>30.49</v>
+        <v>30.68</v>
       </c>
       <c r="D20">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E20">
         <v>0.03</v>
@@ -797,27 +797,27 @@
         <v>0.02</v>
       </c>
       <c r="G20">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H20">
-        <v>23</v>
+        <v>22.3</v>
       </c>
       <c r="I20">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2023-09-18 13:24:42</v>
+        <v>2023-09-21 03:32:53</v>
       </c>
       <c r="B21">
-        <v>24</v>
+        <v>23.6</v>
       </c>
       <c r="C21">
-        <v>30.49</v>
+        <v>30.68</v>
       </c>
       <c r="D21">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E21">
         <v>0.03</v>
@@ -826,27 +826,27 @@
         <v>0.02</v>
       </c>
       <c r="G21">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H21">
-        <v>21.3</v>
+        <v>22.3</v>
       </c>
       <c r="I21">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2023-09-18 16:58:59</v>
+        <v>2023-09-21 07:09:19</v>
       </c>
       <c r="B22">
-        <v>23.8</v>
+        <v>25</v>
       </c>
       <c r="C22">
-        <v>30.49</v>
+        <v>30.68</v>
       </c>
       <c r="D22">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="E22">
         <v>0.03</v>
@@ -855,27 +855,27 @@
         <v>0.02</v>
       </c>
       <c r="G22">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H22">
-        <v>21.3</v>
+        <v>22.3</v>
       </c>
       <c r="I22">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2023-09-18 20:34:57</v>
+        <v>2023-09-21 10:45:59</v>
       </c>
       <c r="B23">
-        <v>23.8</v>
+        <v>25.9</v>
       </c>
       <c r="C23">
-        <v>30.49</v>
+        <v>30.68</v>
       </c>
       <c r="D23">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="E23">
         <v>0.03</v>
@@ -884,27 +884,27 @@
         <v>0.02</v>
       </c>
       <c r="G23">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H23">
-        <v>21.3</v>
+        <v>22.6</v>
       </c>
       <c r="I23">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2023-09-18 20:39:30</v>
+        <v>2023-09-21 14:23:36</v>
       </c>
       <c r="B24">
-        <v>23.8</v>
+        <v>25.9</v>
       </c>
       <c r="C24">
-        <v>30.49</v>
+        <v>30.68</v>
       </c>
       <c r="D24">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="E24">
         <v>0.03</v>
@@ -913,230 +913,230 @@
         <v>0.02</v>
       </c>
       <c r="G24">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H24">
-        <v>21.3</v>
+        <v>23.1</v>
       </c>
       <c r="I24">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2023-09-19 00:15:13</v>
+        <v>2023-09-21 18:00:24</v>
       </c>
       <c r="B25">
-        <v>23.7</v>
+        <v>26.89</v>
       </c>
       <c r="C25">
-        <v>30.49</v>
+        <v>30.68</v>
       </c>
       <c r="D25">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="E25">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F25">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H25">
-        <v>21.3</v>
+        <v>23.1</v>
       </c>
       <c r="I25">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2023-09-19 00:19:42</v>
+        <v>2023-09-21 21:38:29</v>
       </c>
       <c r="B26">
-        <v>23.7</v>
+        <v>25.7</v>
       </c>
       <c r="C26">
-        <v>30.49</v>
+        <v>30.68</v>
       </c>
       <c r="D26">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="E26">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F26">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G26">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H26">
-        <v>21.3</v>
+        <v>23.2</v>
       </c>
       <c r="I26">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2023-09-19 03:55:56</v>
+        <v>2023-09-22 01:16:39</v>
       </c>
       <c r="B27">
-        <v>23.9</v>
+        <v>25.7</v>
       </c>
       <c r="C27">
-        <v>30.03</v>
+        <v>30.68</v>
       </c>
       <c r="D27">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E27">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F27">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G27">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H27">
-        <v>21.3</v>
+        <v>23.2</v>
       </c>
       <c r="I27">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2023-09-19 07:34:26</v>
+        <v>2023-09-22 04:58:56</v>
       </c>
       <c r="B28">
-        <v>23.9</v>
+        <v>25.7</v>
       </c>
       <c r="C28">
-        <v>30.03</v>
+        <v>32.63</v>
       </c>
       <c r="D28">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E28">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F28">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G28">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H28">
-        <v>21.3</v>
+        <v>23.2</v>
       </c>
       <c r="I28">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2023-09-19 11:12:38</v>
+        <v>2023-09-22 08:37:34</v>
       </c>
       <c r="B29">
-        <v>23.9</v>
+        <v>25.7</v>
       </c>
       <c r="C29">
-        <v>30.03</v>
+        <v>32.63</v>
       </c>
       <c r="D29">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E29">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F29">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G29">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H29">
-        <v>21.4</v>
+        <v>23.2</v>
       </c>
       <c r="I29">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2023-09-19 14:55:22</v>
+        <v>2023-09-22 08:43:59</v>
       </c>
       <c r="B30">
-        <v>23.8</v>
+        <v>25.7</v>
       </c>
       <c r="C30">
-        <v>30.03</v>
+        <v>32.63</v>
       </c>
       <c r="D30">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E30">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F30">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G30">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H30">
-        <v>21.8</v>
+        <v>23.2</v>
       </c>
       <c r="I30">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2023-09-19 18:35:10</v>
+        <v>2023-09-22 12:24:08</v>
       </c>
       <c r="B31">
-        <v>24</v>
+        <v>25.7</v>
       </c>
       <c r="C31">
-        <v>30.03</v>
+        <v>32.63</v>
       </c>
       <c r="D31">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E31">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F31">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G31">
         <v>25</v>
       </c>
       <c r="H31">
-        <v>21.8</v>
+        <v>23.3</v>
       </c>
       <c r="I31">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2023-09-19 22:12:18</v>
+        <v>2023-09-22 16:03:17</v>
       </c>
       <c r="B32">
-        <v>23.9</v>
+        <v>25.8</v>
       </c>
       <c r="C32">
-        <v>30.03</v>
+        <v>32.63</v>
       </c>
       <c r="D32">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E32">
         <v>0.03</v>
@@ -1145,27 +1145,27 @@
         <v>0.02</v>
       </c>
       <c r="G32">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H32">
-        <v>21.8</v>
+        <v>23.4</v>
       </c>
       <c r="I32">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2023-09-20 01:54:04</v>
+        <v>2023-09-22 19:39:06</v>
       </c>
       <c r="B33">
-        <v>23.9</v>
+        <v>25.5</v>
       </c>
       <c r="C33">
-        <v>30.03</v>
+        <v>32.63</v>
       </c>
       <c r="D33">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E33">
         <v>0.03</v>
@@ -1174,10 +1174,10 @@
         <v>0.02</v>
       </c>
       <c r="G33">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H33">
-        <v>22</v>
+        <v>23.4</v>
       </c>
       <c r="I33">
         <v>11</v>
@@ -1185,16 +1185,16 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>2023-09-20 05:28:41</v>
+        <v>2023-09-22 23:16:34</v>
       </c>
       <c r="B34">
-        <v>23.8</v>
+        <v>25.8</v>
       </c>
       <c r="C34">
-        <v>28.99</v>
+        <v>32.63</v>
       </c>
       <c r="D34">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E34">
         <v>0.03</v>
@@ -1203,68 +1203,68 @@
         <v>0.02</v>
       </c>
       <c r="G34">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H34">
-        <v>22</v>
+        <v>23.4</v>
       </c>
       <c r="I34">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>2023-09-20 09:06:27</v>
+        <v>2023-09-23 02:55:21</v>
       </c>
       <c r="B35">
-        <v>23.9</v>
+        <v>26.6</v>
       </c>
       <c r="C35">
-        <v>28.99</v>
+        <v>33.79</v>
       </c>
       <c r="D35">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E35">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F35">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G35">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H35">
-        <v>22</v>
+        <v>23.6</v>
       </c>
       <c r="I35">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>2023-09-20 09:13:10</v>
+        <v>2023-09-23 06:33:00</v>
       </c>
       <c r="B36">
-        <v>23.9</v>
+        <v>26.6</v>
       </c>
       <c r="C36">
-        <v>28.99</v>
+        <v>33.79</v>
       </c>
       <c r="D36">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E36">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F36">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G36">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H36">
-        <v>22.2</v>
+        <v>23.6</v>
       </c>
       <c r="I36">
         <v>11</v>
@@ -1272,28 +1272,28 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>2023-09-20 12:52:57</v>
+        <v>2023-09-23 10:09:43</v>
       </c>
       <c r="B37">
-        <v>23.9</v>
+        <v>26.99</v>
       </c>
       <c r="C37">
-        <v>28.99</v>
+        <v>33.79</v>
       </c>
       <c r="D37">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="E37">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F37">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G37">
         <v>24</v>
       </c>
       <c r="H37">
-        <v>22.2</v>
+        <v>23.9</v>
       </c>
       <c r="I37">
         <v>11</v>
@@ -1301,45 +1301,45 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>2023-09-20 16:29:16</v>
+        <v>2023-09-23 10:16:21</v>
       </c>
       <c r="B38">
+        <v>26.99</v>
+      </c>
+      <c r="C38">
+        <v>33.79</v>
+      </c>
+      <c r="D38">
+        <v>81</v>
+      </c>
+      <c r="E38">
+        <v>0.02</v>
+      </c>
+      <c r="F38">
+        <v>0.01</v>
+      </c>
+      <c r="G38">
+        <v>24</v>
+      </c>
+      <c r="H38">
         <v>23.9</v>
       </c>
-      <c r="C38">
-        <v>28.99</v>
-      </c>
-      <c r="D38">
-        <v>97</v>
-      </c>
-      <c r="E38">
-        <v>0.03</v>
-      </c>
-      <c r="F38">
-        <v>0.02</v>
-      </c>
-      <c r="G38">
-        <v>23</v>
-      </c>
-      <c r="H38">
-        <v>22.2</v>
-      </c>
       <c r="I38">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>2023-09-20 20:06:13</v>
+        <v>2023-09-23 13:56:38</v>
       </c>
       <c r="B39">
-        <v>24.9</v>
+        <v>26.99</v>
       </c>
       <c r="C39">
-        <v>28.99</v>
+        <v>33.79</v>
       </c>
       <c r="D39">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E39">
         <v>0.03</v>
@@ -1348,24 +1348,24 @@
         <v>0.02</v>
       </c>
       <c r="G39">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H39">
-        <v>22.2</v>
+        <v>24</v>
       </c>
       <c r="I39">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>2023-09-20 23:44:51</v>
+        <v>2023-09-23 17:36:50</v>
       </c>
       <c r="B40">
-        <v>25</v>
+        <v>26.89</v>
       </c>
       <c r="C40">
-        <v>28.99</v>
+        <v>33.79</v>
       </c>
       <c r="D40">
         <v>91</v>
@@ -1377,27 +1377,27 @@
         <v>0.02</v>
       </c>
       <c r="G40">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H40">
-        <v>22.2</v>
+        <v>24.1</v>
       </c>
       <c r="I40">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>2023-09-21 03:26:10</v>
+        <v>2023-09-23 21:12:05</v>
       </c>
       <c r="B41">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C41">
-        <v>30.68</v>
+        <v>33.79</v>
       </c>
       <c r="D41">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E41">
         <v>0.03</v>
@@ -1406,27 +1406,27 @@
         <v>0.02</v>
       </c>
       <c r="G41">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H41">
-        <v>22.3</v>
+        <v>24.2</v>
       </c>
       <c r="I41">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>2023-09-21 03:32:53</v>
+        <v>2023-09-24 00:47:46</v>
       </c>
       <c r="B42">
-        <v>23.6</v>
+        <v>27</v>
       </c>
       <c r="C42">
-        <v>30.68</v>
+        <v>33.79</v>
       </c>
       <c r="D42">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E42">
         <v>0.03</v>
@@ -1435,27 +1435,27 @@
         <v>0.02</v>
       </c>
       <c r="G42">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H42">
-        <v>22.3</v>
+        <v>24.3</v>
       </c>
       <c r="I42">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>2023-09-21 07:09:19</v>
+        <v>2023-09-24 04:27:02</v>
       </c>
       <c r="B43">
-        <v>25</v>
+        <v>27.9</v>
       </c>
       <c r="C43">
-        <v>30.68</v>
+        <v>32.11</v>
       </c>
       <c r="D43">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E43">
         <v>0.03</v>
@@ -1464,27 +1464,27 @@
         <v>0.02</v>
       </c>
       <c r="G43">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H43">
-        <v>22.3</v>
+        <v>24.3</v>
       </c>
       <c r="I43">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>2023-09-21 10:45:59</v>
+        <v>2023-09-24 08:04:31</v>
       </c>
       <c r="B44">
-        <v>25.9</v>
+        <v>27.9</v>
       </c>
       <c r="C44">
-        <v>30.68</v>
+        <v>32.11</v>
       </c>
       <c r="D44">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E44">
         <v>0.03</v>
@@ -1493,27 +1493,27 @@
         <v>0.02</v>
       </c>
       <c r="G44">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H44">
-        <v>22.6</v>
+        <v>24.3</v>
       </c>
       <c r="I44">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>2023-09-21 14:23:36</v>
+        <v>2023-09-24 11:43:09</v>
       </c>
       <c r="B45">
-        <v>25.9</v>
+        <v>27.9</v>
       </c>
       <c r="C45">
-        <v>30.68</v>
+        <v>32.11</v>
       </c>
       <c r="D45">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E45">
         <v>0.03</v>
@@ -1522,56 +1522,56 @@
         <v>0.02</v>
       </c>
       <c r="G45">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H45">
-        <v>23.1</v>
+        <v>24.5</v>
       </c>
       <c r="I45">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>2023-09-21 18:00:24</v>
+        <v>2023-09-24 15:21:12</v>
       </c>
       <c r="B46">
-        <v>26.89</v>
+        <v>27.68</v>
       </c>
       <c r="C46">
-        <v>30.68</v>
+        <v>32.11</v>
       </c>
       <c r="D46">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E46">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F46">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G46">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H46">
-        <v>23.1</v>
+        <v>24.6</v>
       </c>
       <c r="I46">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>2023-09-21 21:38:29</v>
+        <v>2023-09-24 19:01:46</v>
       </c>
       <c r="B47">
-        <v>25.7</v>
+        <v>27.3</v>
       </c>
       <c r="C47">
-        <v>30.68</v>
+        <v>32.11</v>
       </c>
       <c r="D47">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E47">
         <v>0.02</v>
@@ -1580,10 +1580,10 @@
         <v>0.01</v>
       </c>
       <c r="G47">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H47">
-        <v>23.2</v>
+        <v>24.8</v>
       </c>
       <c r="I47">
         <v>13</v>
@@ -1591,16 +1591,16 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>2023-09-22 01:16:39</v>
+        <v>2023-09-24 22:40:32</v>
       </c>
       <c r="B48">
-        <v>25.7</v>
+        <v>27.78</v>
       </c>
       <c r="C48">
-        <v>30.68</v>
+        <v>32.11</v>
       </c>
       <c r="D48">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E48">
         <v>0.02</v>
@@ -1609,30 +1609,30 @@
         <v>0.01</v>
       </c>
       <c r="G48">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H48">
-        <v>23.2</v>
+        <v>24.7</v>
       </c>
       <c r="I48">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>2023-09-22 04:58:56</v>
+        <v>2023-09-24 22:46:52</v>
       </c>
       <c r="B49">
-        <v>25.7</v>
+        <v>27.78</v>
       </c>
       <c r="C49">
-        <v>32.63</v>
+        <v>32.11</v>
       </c>
       <c r="D49">
         <v>94</v>
       </c>
       <c r="E49">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F49">
         <v>0.01</v>
@@ -1641,27 +1641,27 @@
         <v>27</v>
       </c>
       <c r="H49">
-        <v>23.2</v>
+        <v>24.7</v>
       </c>
       <c r="I49">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>2023-09-22 08:37:34</v>
+        <v>2023-09-25 02:26:36</v>
       </c>
       <c r="B50">
-        <v>25.7</v>
+        <v>27</v>
       </c>
       <c r="C50">
-        <v>32.63</v>
+        <v>32.7</v>
       </c>
       <c r="D50">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E50">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F50">
         <v>0.01</v>
@@ -1670,27 +1670,27 @@
         <v>27</v>
       </c>
       <c r="H50">
-        <v>23.2</v>
+        <v>24.7</v>
       </c>
       <c r="I50">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>2023-09-22 08:43:59</v>
+        <v>2023-09-25 06:05:41</v>
       </c>
       <c r="B51">
-        <v>25.7</v>
+        <v>27</v>
       </c>
       <c r="C51">
-        <v>32.63</v>
+        <v>32.7</v>
       </c>
       <c r="D51">
         <v>95</v>
       </c>
       <c r="E51">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F51">
         <v>0.01</v>
@@ -1699,24 +1699,24 @@
         <v>27</v>
       </c>
       <c r="H51">
-        <v>23.2</v>
+        <v>24.7</v>
       </c>
       <c r="I51">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>2023-09-22 12:24:08</v>
+        <v>2023-09-25 09:42:32</v>
       </c>
       <c r="B52">
-        <v>25.7</v>
+        <v>26.79</v>
       </c>
       <c r="C52">
-        <v>32.63</v>
+        <v>32.7</v>
       </c>
       <c r="D52">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E52">
         <v>0.02</v>
@@ -1725,27 +1725,27 @@
         <v>0.01</v>
       </c>
       <c r="G52">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H52">
-        <v>23.3</v>
+        <v>24.7</v>
       </c>
       <c r="I52">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>2023-09-22 16:03:17</v>
+        <v>2023-09-25 13:19:06</v>
       </c>
       <c r="B53">
-        <v>25.8</v>
+        <v>26.79</v>
       </c>
       <c r="C53">
-        <v>32.63</v>
+        <v>32.7</v>
       </c>
       <c r="D53">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E53">
         <v>0.03</v>
@@ -1757,7 +1757,7 @@
         <v>25</v>
       </c>
       <c r="H53">
-        <v>23.4</v>
+        <v>24.8</v>
       </c>
       <c r="I53">
         <v>11</v>
@@ -1765,16 +1765,16 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>2023-09-22 19:39:06</v>
+        <v>2023-09-25 16:57:02</v>
       </c>
       <c r="B54">
-        <v>25.5</v>
+        <v>26.69</v>
       </c>
       <c r="C54">
-        <v>32.63</v>
+        <v>32.7</v>
       </c>
       <c r="D54">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E54">
         <v>0.03</v>
@@ -1786,24 +1786,24 @@
         <v>25</v>
       </c>
       <c r="H54">
-        <v>23.4</v>
+        <v>24.8</v>
       </c>
       <c r="I54">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>2023-09-22 23:16:34</v>
+        <v>2023-09-25 20:34:57</v>
       </c>
       <c r="B55">
-        <v>25.8</v>
+        <v>26.49</v>
       </c>
       <c r="C55">
-        <v>32.63</v>
+        <v>32.7</v>
       </c>
       <c r="D55">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="E55">
         <v>0.03</v>
@@ -1812,114 +1812,114 @@
         <v>0.02</v>
       </c>
       <c r="G55">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H55">
-        <v>23.4</v>
+        <v>24.8</v>
       </c>
       <c r="I55">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>2023-09-23 02:55:21</v>
+        <v>2023-09-26 00:12:22</v>
       </c>
       <c r="B56">
-        <v>26.6</v>
+        <v>26.45</v>
       </c>
       <c r="C56">
-        <v>33.79</v>
+        <v>32.7</v>
       </c>
       <c r="D56">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="E56">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F56">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G56">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H56">
-        <v>23.6</v>
+        <v>24.8</v>
       </c>
       <c r="I56">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>2023-09-23 06:33:00</v>
+        <v>2023-09-26 03:49:18</v>
       </c>
       <c r="B57">
-        <v>26.6</v>
+        <v>26.45</v>
       </c>
       <c r="C57">
-        <v>33.79</v>
+        <v>31.39</v>
       </c>
       <c r="D57">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="E57">
         <v>0.02</v>
       </c>
       <c r="F57">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G57">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H57">
-        <v>23.6</v>
+        <v>24.8</v>
       </c>
       <c r="I57">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>2023-09-23 10:09:43</v>
+        <v>2023-09-26 07:28:56</v>
       </c>
       <c r="B58">
-        <v>26.99</v>
+        <v>26.45</v>
       </c>
       <c r="C58">
-        <v>33.79</v>
+        <v>31.39</v>
       </c>
       <c r="D58">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="E58">
         <v>0.02</v>
       </c>
       <c r="F58">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G58">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H58">
-        <v>23.9</v>
+        <v>24.8</v>
       </c>
       <c r="I58">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>2023-09-23 10:16:21</v>
+        <v>2023-09-26 11:09:40</v>
       </c>
       <c r="B59">
-        <v>26.99</v>
+        <v>25.35</v>
       </c>
       <c r="C59">
-        <v>33.79</v>
+        <v>31.39</v>
       </c>
       <c r="D59">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="E59">
         <v>0.02</v>
@@ -1928,259 +1928,259 @@
         <v>0.01</v>
       </c>
       <c r="G59">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H59">
-        <v>23.9</v>
+        <v>24.7</v>
       </c>
       <c r="I59">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>2023-09-23 13:56:38</v>
+        <v>2023-09-26 14:48:31</v>
       </c>
       <c r="B60">
-        <v>26.99</v>
+        <v>25.25</v>
       </c>
       <c r="C60">
-        <v>33.79</v>
+        <v>31.39</v>
       </c>
       <c r="D60">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="E60">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F60">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G60">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H60">
-        <v>24</v>
+        <v>24.7</v>
       </c>
       <c r="I60">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>2023-09-23 17:36:50</v>
+        <v>2023-09-26 18:27:54</v>
       </c>
       <c r="B61">
-        <v>26.89</v>
+        <v>25.35</v>
       </c>
       <c r="C61">
-        <v>33.79</v>
+        <v>31.39</v>
       </c>
       <c r="D61">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="E61">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F61">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G61">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H61">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="I61">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>2023-09-23 21:12:05</v>
+        <v>2023-09-26 22:05:18</v>
       </c>
       <c r="B62">
-        <v>27</v>
+        <v>25.35</v>
       </c>
       <c r="C62">
-        <v>33.79</v>
+        <v>31.39</v>
       </c>
       <c r="D62">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="E62">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F62">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G62">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H62">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="I62">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>2023-09-24 00:47:46</v>
+        <v>2023-09-27 01:42:28</v>
       </c>
       <c r="B63">
-        <v>27</v>
+        <v>25.35</v>
       </c>
       <c r="C63">
-        <v>33.79</v>
+        <v>31.39</v>
       </c>
       <c r="D63">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="E63">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F63">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G63">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H63">
         <v>24.3</v>
       </c>
       <c r="I63">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>2023-09-24 04:27:02</v>
+        <v>2023-09-27 05:22:00</v>
       </c>
       <c r="B64">
-        <v>27.9</v>
+        <v>25.15</v>
       </c>
       <c r="C64">
-        <v>32.11</v>
+        <v>31.78</v>
       </c>
       <c r="D64">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="E64">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F64">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G64">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H64">
         <v>24.3</v>
       </c>
       <c r="I64">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>2023-09-24 08:04:31</v>
+        <v>2023-09-27 05:28:29</v>
       </c>
       <c r="B65">
-        <v>27.9</v>
+        <v>25.15</v>
       </c>
       <c r="C65">
-        <v>32.11</v>
+        <v>31.78</v>
       </c>
       <c r="D65">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="E65">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F65">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G65">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H65">
         <v>24.3</v>
       </c>
       <c r="I65">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>2023-09-24 11:43:09</v>
+        <v>2023-09-27 09:09:11</v>
       </c>
       <c r="B66">
-        <v>27.9</v>
+        <v>25.25</v>
       </c>
       <c r="C66">
-        <v>32.11</v>
+        <v>31.78</v>
       </c>
       <c r="D66">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="E66">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F66">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G66">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H66">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="I66">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>2023-09-24 15:21:12</v>
+        <v>2023-09-27 12:48:29</v>
       </c>
       <c r="B67">
-        <v>27.68</v>
+        <v>25.25</v>
       </c>
       <c r="C67">
-        <v>32.11</v>
+        <v>31.78</v>
       </c>
       <c r="D67">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="E67">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F67">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G67">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H67">
-        <v>24.6</v>
+        <v>24</v>
       </c>
       <c r="I67">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>2023-09-24 19:01:46</v>
+        <v>2023-09-27 16:30:34</v>
       </c>
       <c r="B68">
-        <v>27.3</v>
+        <v>25.25</v>
       </c>
       <c r="C68">
-        <v>32.11</v>
+        <v>31.78</v>
       </c>
       <c r="D68">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="E68">
         <v>0.02</v>
@@ -2189,27 +2189,27 @@
         <v>0.01</v>
       </c>
       <c r="G68">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H68">
-        <v>24.8</v>
+        <v>22.2</v>
       </c>
       <c r="I68">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>2023-09-24 22:40:32</v>
+        <v>2023-09-27 20:08:11</v>
       </c>
       <c r="B69">
-        <v>27.78</v>
+        <v>23.8</v>
       </c>
       <c r="C69">
-        <v>32.11</v>
+        <v>31.78</v>
       </c>
       <c r="D69">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="E69">
         <v>0.02</v>
@@ -2218,27 +2218,27 @@
         <v>0.01</v>
       </c>
       <c r="G69">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H69">
-        <v>24.7</v>
+        <v>22.2</v>
       </c>
       <c r="I69">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>2023-09-24 22:46:52</v>
+        <v>2023-09-27 23:45:06</v>
       </c>
       <c r="B70">
-        <v>27.78</v>
+        <v>24</v>
       </c>
       <c r="C70">
-        <v>32.11</v>
+        <v>31.78</v>
       </c>
       <c r="D70">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="E70">
         <v>0.02</v>
@@ -2247,27 +2247,27 @@
         <v>0.01</v>
       </c>
       <c r="G70">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H70">
-        <v>24.7</v>
+        <v>22.3</v>
       </c>
       <c r="I70">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>2023-09-25 02:26:36</v>
+        <v>2023-09-28 03:20:43</v>
       </c>
       <c r="B71">
-        <v>27</v>
+        <v>25.15</v>
       </c>
       <c r="C71">
-        <v>32.7</v>
+        <v>31.52</v>
       </c>
       <c r="D71">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E71">
         <v>0.02</v>
@@ -2276,27 +2276,27 @@
         <v>0.01</v>
       </c>
       <c r="G71">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H71">
-        <v>24.7</v>
+        <v>22.2</v>
       </c>
       <c r="I71">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>2023-09-25 06:05:41</v>
+        <v>2023-09-28 06:58:31</v>
       </c>
       <c r="B72">
-        <v>27</v>
+        <v>25.25</v>
       </c>
       <c r="C72">
-        <v>32.7</v>
+        <v>31.52</v>
       </c>
       <c r="D72">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E72">
         <v>0.02</v>
@@ -2305,27 +2305,27 @@
         <v>0.01</v>
       </c>
       <c r="G72">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H72">
-        <v>24.7</v>
+        <v>22.2</v>
       </c>
       <c r="I72">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>2023-09-25 09:42:32</v>
+        <v>2023-09-28 10:36:44</v>
       </c>
       <c r="B73">
-        <v>26.79</v>
+        <v>25.2</v>
       </c>
       <c r="C73">
-        <v>32.7</v>
+        <v>31.52</v>
       </c>
       <c r="D73">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E73">
         <v>0.02</v>
@@ -2334,198 +2334,198 @@
         <v>0.01</v>
       </c>
       <c r="G73">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H73">
-        <v>24.7</v>
+        <v>22.1</v>
       </c>
       <c r="I73">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>2023-09-25 13:19:06</v>
+        <v>2023-09-28 14:15:27</v>
       </c>
       <c r="B74">
-        <v>26.79</v>
+        <v>25.1</v>
       </c>
       <c r="C74">
-        <v>32.7</v>
+        <v>31.52</v>
       </c>
       <c r="D74">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E74">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F74">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G74">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H74">
-        <v>24.8</v>
+        <v>22.3</v>
       </c>
       <c r="I74">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>2023-09-25 16:57:02</v>
+        <v>2023-09-28 17:51:49</v>
       </c>
       <c r="B75">
-        <v>26.69</v>
+        <v>23.9</v>
       </c>
       <c r="C75">
-        <v>32.7</v>
+        <v>31.52</v>
       </c>
       <c r="D75">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="E75">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F75">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G75">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H75">
-        <v>24.8</v>
+        <v>22.2</v>
       </c>
       <c r="I75">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>2023-09-25 20:34:57</v>
+        <v>2023-09-28 21:31:55</v>
       </c>
       <c r="B76">
-        <v>26.49</v>
+        <v>23.3</v>
       </c>
       <c r="C76">
-        <v>32.7</v>
+        <v>31.52</v>
       </c>
       <c r="D76">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E76">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F76">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G76">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H76">
-        <v>24.8</v>
+        <v>21</v>
       </c>
       <c r="I76">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>2023-09-26 00:12:22</v>
+        <v>2023-09-29 01:12:38</v>
       </c>
       <c r="B77">
-        <v>26.45</v>
+        <v>23.3</v>
       </c>
       <c r="C77">
-        <v>32.7</v>
+        <v>31.52</v>
       </c>
       <c r="D77">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="E77">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F77">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G77">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H77">
-        <v>24.8</v>
+        <v>17.3</v>
       </c>
       <c r="I77">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>2023-09-26 03:49:18</v>
+        <v>2023-09-29 04:52:51</v>
       </c>
       <c r="B78">
-        <v>26.45</v>
+        <v>23.2</v>
       </c>
       <c r="C78">
-        <v>31.39</v>
+        <v>35.61</v>
       </c>
       <c r="D78">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E78">
         <v>0.02</v>
       </c>
       <c r="F78">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G78">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H78">
-        <v>24.8</v>
+        <v>18.1</v>
       </c>
       <c r="I78">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>2023-09-26 07:28:56</v>
+        <v>2023-09-29 08:29:55</v>
       </c>
       <c r="B79">
-        <v>26.45</v>
+        <v>23.2</v>
       </c>
       <c r="C79">
-        <v>31.39</v>
+        <v>35.61</v>
       </c>
       <c r="D79">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E79">
         <v>0.02</v>
       </c>
       <c r="F79">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G79">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H79">
-        <v>24.8</v>
+        <v>21</v>
       </c>
       <c r="I79">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>2023-09-26 11:09:40</v>
+        <v>2023-09-29 12:05:52</v>
       </c>
       <c r="B80">
-        <v>25.35</v>
+        <v>24.5</v>
       </c>
       <c r="C80">
-        <v>31.39</v>
+        <v>35.61</v>
       </c>
       <c r="D80">
         <v>104</v>
@@ -2537,294 +2537,294 @@
         <v>0.01</v>
       </c>
       <c r="G80">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H80">
-        <v>24.7</v>
+        <v>21</v>
       </c>
       <c r="I80">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>2023-09-26 14:48:31</v>
+        <v>2023-09-29 15:42:44</v>
       </c>
       <c r="B81">
-        <v>25.25</v>
+        <v>25</v>
       </c>
       <c r="C81">
-        <v>31.39</v>
+        <v>35.61</v>
       </c>
       <c r="D81">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E81">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F81">
         <v>0.01</v>
       </c>
       <c r="G81">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H81">
-        <v>24.7</v>
+        <v>21</v>
       </c>
       <c r="I81">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>2023-09-26 18:27:54</v>
+        <v>2023-09-29 19:21:53</v>
       </c>
       <c r="B82">
-        <v>25.35</v>
+        <v>24.5</v>
       </c>
       <c r="C82">
-        <v>31.39</v>
+        <v>35.61</v>
       </c>
       <c r="D82">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E82">
         <v>0.02</v>
       </c>
       <c r="F82">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G82">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H82">
-        <v>24.3</v>
+        <v>21.1</v>
       </c>
       <c r="I82">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>2023-09-26 22:05:18</v>
+        <v>2023-09-29 23:00:16</v>
       </c>
       <c r="B83">
-        <v>25.35</v>
+        <v>25.2</v>
       </c>
       <c r="C83">
-        <v>31.39</v>
+        <v>35.61</v>
       </c>
       <c r="D83">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E83">
         <v>0.02</v>
       </c>
       <c r="F83">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G83">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H83">
-        <v>24.3</v>
+        <v>21</v>
       </c>
       <c r="I83">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>2023-09-27 01:42:28</v>
+        <v>2023-09-30 02:41:39</v>
       </c>
       <c r="B84">
-        <v>25.35</v>
+        <v>24.9</v>
       </c>
       <c r="C84">
-        <v>31.39</v>
+        <v>37.38</v>
       </c>
       <c r="D84">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E84">
         <v>0.02</v>
       </c>
       <c r="F84">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G84">
         <v>23</v>
       </c>
       <c r="H84">
-        <v>24.3</v>
+        <v>21.1</v>
       </c>
       <c r="I84">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>2023-09-27 05:22:00</v>
+        <v>2023-09-30 06:23:57</v>
       </c>
       <c r="B85">
-        <v>25.15</v>
+        <v>24.9</v>
       </c>
       <c r="C85">
-        <v>31.78</v>
+        <v>37.38</v>
       </c>
       <c r="D85">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E85">
         <v>0.02</v>
       </c>
       <c r="F85">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G85">
         <v>23</v>
       </c>
       <c r="H85">
-        <v>24.3</v>
+        <v>21</v>
       </c>
       <c r="I85">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>2023-09-27 05:28:29</v>
+        <v>2023-09-30 10:03:15</v>
       </c>
       <c r="B86">
-        <v>25.15</v>
+        <v>24.9</v>
       </c>
       <c r="C86">
-        <v>31.78</v>
+        <v>37.38</v>
       </c>
       <c r="D86">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E86">
         <v>0.02</v>
       </c>
       <c r="F86">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G86">
         <v>23</v>
       </c>
       <c r="H86">
-        <v>24.3</v>
+        <v>22</v>
       </c>
       <c r="I86">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>2023-09-27 09:09:11</v>
+        <v>2023-09-30 13:39:12</v>
       </c>
       <c r="B87">
-        <v>25.25</v>
+        <v>24.9</v>
       </c>
       <c r="C87">
-        <v>31.78</v>
+        <v>37.38</v>
       </c>
       <c r="D87">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E87">
         <v>0.02</v>
       </c>
       <c r="F87">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G87">
         <v>23</v>
       </c>
       <c r="H87">
-        <v>24.3</v>
+        <v>22</v>
       </c>
       <c r="I87">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>2023-09-27 12:48:29</v>
+        <v>2023-09-30 17:16:51</v>
       </c>
       <c r="B88">
-        <v>25.25</v>
+        <v>26.6</v>
       </c>
       <c r="C88">
-        <v>31.78</v>
+        <v>37.38</v>
       </c>
       <c r="D88">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E88">
         <v>0.02</v>
       </c>
       <c r="F88">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G88">
         <v>23</v>
       </c>
       <c r="H88">
-        <v>24</v>
+        <v>23.1</v>
       </c>
       <c r="I88">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>2023-09-27 16:30:34</v>
+        <v>2023-09-30 20:55:15</v>
       </c>
       <c r="B89">
-        <v>25.25</v>
+        <v>26.4</v>
       </c>
       <c r="C89">
-        <v>31.78</v>
+        <v>37.38</v>
       </c>
       <c r="D89">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E89">
         <v>0.02</v>
       </c>
       <c r="F89">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G89">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H89">
-        <v>22.2</v>
+        <v>23.1</v>
       </c>
       <c r="I89">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>2023-09-27 20:08:11</v>
+        <v>2023-10-01 00:31:40</v>
       </c>
       <c r="B90">
-        <v>23.8</v>
+        <v>26.4</v>
       </c>
       <c r="C90">
-        <v>31.78</v>
+        <v>37.38</v>
       </c>
       <c r="D90">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E90">
         <v>0.02</v>
       </c>
       <c r="F90">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G90">
         <v>22</v>
@@ -2833,27 +2833,27 @@
         <v>22.2</v>
       </c>
       <c r="I90">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>2023-09-27 23:45:06</v>
+        <v>2023-10-01 04:15:02</v>
       </c>
       <c r="B91">
-        <v>24</v>
+        <v>26.4</v>
       </c>
       <c r="C91">
-        <v>31.78</v>
+        <v>39.2</v>
       </c>
       <c r="D91">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E91">
         <v>0.02</v>
       </c>
       <c r="F91">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G91">
         <v>22</v>
@@ -2862,33 +2862,33 @@
         <v>22.3</v>
       </c>
       <c r="I91">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>2023-09-28 03:20:43</v>
+        <v>2023-10-01 07:54:04</v>
       </c>
       <c r="B92">
-        <v>25.15</v>
+        <v>26.4</v>
       </c>
       <c r="C92">
-        <v>31.52</v>
+        <v>39.2</v>
       </c>
       <c r="D92">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E92">
         <v>0.02</v>
       </c>
       <c r="F92">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G92">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H92">
-        <v>22.2</v>
+        <v>24</v>
       </c>
       <c r="I92">
         <v>9</v>
@@ -2896,306 +2896,306 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>2023-09-28 06:58:31</v>
+        <v>2023-10-01 11:34:10</v>
       </c>
       <c r="B93">
-        <v>25.25</v>
+        <v>26.89</v>
       </c>
       <c r="C93">
-        <v>31.52</v>
+        <v>39.2</v>
       </c>
       <c r="D93">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E93">
         <v>0.02</v>
       </c>
       <c r="F93">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G93">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H93">
-        <v>22.2</v>
+        <v>23.1</v>
       </c>
       <c r="I93">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>2023-09-28 10:36:44</v>
+        <v>2023-10-01 15:15:14</v>
       </c>
       <c r="B94">
-        <v>25.2</v>
+        <v>26.9</v>
       </c>
       <c r="C94">
-        <v>31.52</v>
+        <v>39.2</v>
       </c>
       <c r="D94">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E94">
         <v>0.02</v>
       </c>
       <c r="F94">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G94">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H94">
-        <v>22.1</v>
+        <v>24.2</v>
       </c>
       <c r="I94">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>2023-09-28 14:15:27</v>
+        <v>2023-10-01 18:55:47</v>
       </c>
       <c r="B95">
-        <v>25.1</v>
+        <v>28</v>
       </c>
       <c r="C95">
-        <v>31.52</v>
+        <v>39.2</v>
       </c>
       <c r="D95">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="E95">
         <v>0.02</v>
       </c>
       <c r="F95">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G95">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H95">
-        <v>22.3</v>
+        <v>24.2</v>
       </c>
       <c r="I95">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>2023-09-28 17:51:49</v>
+        <v>2023-10-01 22:33:53</v>
       </c>
       <c r="B96">
-        <v>23.9</v>
+        <v>28</v>
       </c>
       <c r="C96">
-        <v>31.52</v>
+        <v>39.2</v>
       </c>
       <c r="D96">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="E96">
         <v>0.02</v>
       </c>
       <c r="F96">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G96">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H96">
-        <v>22.2</v>
+        <v>24.2</v>
       </c>
       <c r="I96">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>2023-09-28 21:31:55</v>
+        <v>2023-10-02 02:09:58</v>
       </c>
       <c r="B97">
-        <v>23.3</v>
+        <v>28.88</v>
       </c>
       <c r="C97">
-        <v>31.52</v>
+        <v>38.15</v>
       </c>
       <c r="D97">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="E97">
         <v>0.02</v>
       </c>
       <c r="F97">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G97">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H97">
-        <v>21</v>
+        <v>24.5</v>
       </c>
       <c r="I97">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>2023-09-29 01:12:38</v>
+        <v>2023-10-02 05:46:41</v>
       </c>
       <c r="B98">
-        <v>23.3</v>
+        <v>28.78</v>
       </c>
       <c r="C98">
-        <v>31.52</v>
+        <v>38.15</v>
       </c>
       <c r="D98">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="E98">
         <v>0.02</v>
       </c>
       <c r="F98">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G98">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H98">
-        <v>17.3</v>
+        <v>25</v>
       </c>
       <c r="I98">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>2023-09-29 04:52:51</v>
+        <v>2023-10-02 09:26:00</v>
       </c>
       <c r="B99">
-        <v>23.2</v>
+        <v>28.78</v>
       </c>
       <c r="C99">
-        <v>35.61</v>
+        <v>38.15</v>
       </c>
       <c r="D99">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E99">
         <v>0.02</v>
       </c>
       <c r="F99">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G99">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H99">
-        <v>18.1</v>
+        <v>25.1</v>
       </c>
       <c r="I99">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>2023-09-29 08:29:55</v>
+        <v>2023-10-02 13:03:39</v>
       </c>
       <c r="B100">
-        <v>23.2</v>
+        <v>28.7</v>
       </c>
       <c r="C100">
-        <v>35.61</v>
+        <v>38.15</v>
       </c>
       <c r="D100">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E100">
         <v>0.02</v>
       </c>
       <c r="F100">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G100">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H100">
-        <v>21</v>
+        <v>25.5</v>
       </c>
       <c r="I100">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>2023-09-29 12:05:52</v>
+        <v>2023-10-02 16:44:59</v>
       </c>
       <c r="B101">
-        <v>24.5</v>
+        <v>28.7</v>
       </c>
       <c r="C101">
-        <v>35.61</v>
+        <v>38.15</v>
       </c>
       <c r="D101">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E101">
         <v>0.02</v>
       </c>
       <c r="F101">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G101">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H101">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I101">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>2023-09-29 15:42:44</v>
+        <v>2023-10-02 20:26:07</v>
       </c>
       <c r="B102">
-        <v>25</v>
+        <v>28.85</v>
       </c>
       <c r="C102">
-        <v>35.61</v>
+        <v>38.15</v>
       </c>
       <c r="D102">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E102">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F102">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G102">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H102">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I102">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>2023-09-29 19:21:53</v>
+        <v>2023-10-03 00:05:53</v>
       </c>
       <c r="B103">
-        <v>24.5</v>
+        <v>28.85</v>
       </c>
       <c r="C103">
-        <v>35.61</v>
+        <v>38.15</v>
       </c>
       <c r="D103">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E103">
         <v>0.02</v>
@@ -3204,27 +3204,27 @@
         <v>0.02</v>
       </c>
       <c r="G103">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H103">
-        <v>21.1</v>
+        <v>27</v>
       </c>
       <c r="I103">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>2023-09-29 23:00:16</v>
+        <v>2023-10-03 05:12:33</v>
       </c>
       <c r="B104">
-        <v>25.2</v>
+        <v>28.85</v>
       </c>
       <c r="C104">
-        <v>35.61</v>
+        <v>42.7</v>
       </c>
       <c r="D104">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E104">
         <v>0.02</v>
@@ -3233,27 +3233,27 @@
         <v>0.02</v>
       </c>
       <c r="G104">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H104">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I104">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>2023-09-30 02:41:39</v>
+        <v>2023-10-03 10:22:31</v>
       </c>
       <c r="B105">
-        <v>24.9</v>
+        <v>29</v>
       </c>
       <c r="C105">
-        <v>37.38</v>
+        <v>42.7</v>
       </c>
       <c r="D105">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E105">
         <v>0.02</v>
@@ -3262,27 +3262,27 @@
         <v>0.02</v>
       </c>
       <c r="G105">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H105">
-        <v>21.1</v>
+        <v>28</v>
       </c>
       <c r="I105">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>2023-09-30 06:23:57</v>
+        <v>2023-10-03 15:32:31</v>
       </c>
       <c r="B106">
-        <v>24.9</v>
+        <v>28.85</v>
       </c>
       <c r="C106">
-        <v>37.38</v>
+        <v>42.7</v>
       </c>
       <c r="D106">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E106">
         <v>0.02</v>
@@ -3291,27 +3291,27 @@
         <v>0.02</v>
       </c>
       <c r="G106">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H106">
-        <v>21</v>
+        <v>28.6</v>
       </c>
       <c r="I106">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>2023-09-30 10:03:15</v>
+        <v>2023-10-03 20:42:36</v>
       </c>
       <c r="B107">
-        <v>24.9</v>
+        <v>29.9</v>
       </c>
       <c r="C107">
-        <v>37.38</v>
+        <v>42.7</v>
       </c>
       <c r="D107">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E107">
         <v>0.02</v>
@@ -3320,27 +3320,27 @@
         <v>0.02</v>
       </c>
       <c r="G107">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H107">
-        <v>22</v>
+        <v>28.6</v>
       </c>
       <c r="I107">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>2023-09-30 13:39:12</v>
+        <v>2023-10-04 01:52:36</v>
       </c>
       <c r="B108">
-        <v>24.9</v>
+        <v>30</v>
       </c>
       <c r="C108">
-        <v>37.38</v>
+        <v>42.7</v>
       </c>
       <c r="D108">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="E108">
         <v>0.02</v>
@@ -3349,27 +3349,27 @@
         <v>0.02</v>
       </c>
       <c r="G108">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H108">
-        <v>22</v>
+        <v>28.6</v>
       </c>
       <c r="I108">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>2023-09-30 17:16:51</v>
+        <v>2023-10-04 07:02:36</v>
       </c>
       <c r="B109">
-        <v>26.6</v>
+        <v>29.9</v>
       </c>
       <c r="C109">
-        <v>37.38</v>
+        <v>43.03</v>
       </c>
       <c r="D109">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E109">
         <v>0.02</v>
@@ -3378,27 +3378,27 @@
         <v>0.02</v>
       </c>
       <c r="G109">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H109">
-        <v>23.1</v>
+        <v>28.6</v>
       </c>
       <c r="I109">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>2023-09-30 20:55:15</v>
+        <v>2023-10-04 12:12:34</v>
       </c>
       <c r="B110">
-        <v>26.4</v>
+        <v>26.6</v>
       </c>
       <c r="C110">
-        <v>37.38</v>
+        <v>43.03</v>
       </c>
       <c r="D110">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E110">
         <v>0.02</v>
@@ -3407,27 +3407,27 @@
         <v>0.02</v>
       </c>
       <c r="G110">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H110">
-        <v>23.1</v>
+        <v>28.6</v>
       </c>
       <c r="I110">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>2023-10-01 00:31:40</v>
+        <v>2023-10-04 17:22:33</v>
       </c>
       <c r="B111">
-        <v>26.4</v>
+        <v>29.6</v>
       </c>
       <c r="C111">
-        <v>37.38</v>
+        <v>43.03</v>
       </c>
       <c r="D111">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E111">
         <v>0.02</v>
@@ -3436,27 +3436,27 @@
         <v>0.02</v>
       </c>
       <c r="G111">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H111">
-        <v>22.2</v>
+        <v>28.8</v>
       </c>
       <c r="I111">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>2023-10-01 04:15:02</v>
+        <v>2023-10-04 22:32:45</v>
       </c>
       <c r="B112">
-        <v>26.4</v>
+        <v>29.6</v>
       </c>
       <c r="C112">
-        <v>39.2</v>
+        <v>43.03</v>
       </c>
       <c r="D112">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="E112">
         <v>0.02</v>
@@ -3465,27 +3465,27 @@
         <v>0.02</v>
       </c>
       <c r="G112">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H112">
-        <v>22.3</v>
+        <v>28.8</v>
       </c>
       <c r="I112">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>2023-10-01 07:54:04</v>
+        <v>2023-10-05 03:42:41</v>
       </c>
       <c r="B113">
-        <v>26.4</v>
+        <v>30</v>
       </c>
       <c r="C113">
-        <v>39.2</v>
+        <v>44.4</v>
       </c>
       <c r="D113">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="E113">
         <v>0.02</v>
@@ -3494,27 +3494,27 @@
         <v>0.02</v>
       </c>
       <c r="G113">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H113">
-        <v>24</v>
+        <v>28.8</v>
       </c>
       <c r="I113">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>2023-10-01 11:34:10</v>
+        <v>2023-10-05 08:52:40</v>
       </c>
       <c r="B114">
-        <v>26.89</v>
+        <v>29.9</v>
       </c>
       <c r="C114">
-        <v>39.2</v>
+        <v>44.4</v>
       </c>
       <c r="D114">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E114">
         <v>0.02</v>
@@ -3523,213 +3523,213 @@
         <v>0.02</v>
       </c>
       <c r="G114">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H114">
-        <v>23.1</v>
+        <v>28.8</v>
       </c>
       <c r="I114">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>2023-10-01 15:15:14</v>
+        <v>2023-10-05 14:02:55</v>
       </c>
       <c r="B115">
-        <v>26.9</v>
+        <v>29.9</v>
       </c>
       <c r="C115">
-        <v>39.2</v>
+        <v>44.4</v>
       </c>
       <c r="D115">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E115">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="F115">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G115">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H115">
-        <v>24.2</v>
+        <v>28.9</v>
       </c>
       <c r="I115">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>2023-10-01 18:55:47</v>
+        <v>2023-10-05 19:12:48</v>
       </c>
       <c r="B116">
-        <v>28</v>
+        <v>29.9</v>
       </c>
       <c r="C116">
-        <v>39.2</v>
+        <v>44.4</v>
       </c>
       <c r="D116">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E116">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="F116">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G116">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H116">
-        <v>24.2</v>
+        <v>29.1</v>
       </c>
       <c r="I116">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>2023-10-01 22:33:53</v>
+        <v>2023-10-06 00:22:48</v>
       </c>
       <c r="B117">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C117">
-        <v>39.2</v>
+        <v>44.4</v>
       </c>
       <c r="D117">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E117">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="F117">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G117">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H117">
-        <v>24.2</v>
+        <v>29</v>
       </c>
       <c r="I117">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>2023-10-02 02:09:58</v>
+        <v>2023-10-06 05:33:16</v>
       </c>
       <c r="B118">
-        <v>28.88</v>
+        <v>31</v>
       </c>
       <c r="C118">
-        <v>38.15</v>
+        <v>44.27</v>
       </c>
       <c r="D118">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E118">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="F118">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G118">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H118">
-        <v>24.5</v>
+        <v>29.1</v>
       </c>
       <c r="I118">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>2023-10-02 05:46:41</v>
+        <v>2023-10-06 10:42:37</v>
       </c>
       <c r="B119">
-        <v>28.78</v>
+        <v>31</v>
       </c>
       <c r="C119">
-        <v>38.15</v>
+        <v>44.27</v>
       </c>
       <c r="D119">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E119">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="F119">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G119">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H119">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I119">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>2023-10-02 09:26:00</v>
+        <v>2023-10-06 15:52:37</v>
       </c>
       <c r="B120">
-        <v>28.78</v>
+        <v>29.9</v>
       </c>
       <c r="C120">
-        <v>38.15</v>
+        <v>44.27</v>
       </c>
       <c r="D120">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E120">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="F120">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G120">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H120">
-        <v>25.1</v>
+        <v>29</v>
       </c>
       <c r="I120">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>2023-10-02 13:03:39</v>
+        <v>2023-10-06 21:02:51</v>
       </c>
       <c r="B121">
-        <v>28.7</v>
+        <v>30</v>
       </c>
       <c r="C121">
-        <v>38.15</v>
+        <v>44.27</v>
       </c>
       <c r="D121">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E121">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="F121">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G121">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H121">
-        <v>25.5</v>
+        <v>29</v>
       </c>
       <c r="I121">
         <v>11</v>
@@ -3737,28 +3737,28 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>2023-10-02 16:44:59</v>
+        <v>2023-10-07 02:12:45</v>
       </c>
       <c r="B122">
-        <v>28.7</v>
+        <v>30</v>
       </c>
       <c r="C122">
-        <v>38.15</v>
+        <v>44.98</v>
       </c>
       <c r="D122">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E122">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="F122">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G122">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H122">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I122">
         <v>11</v>
@@ -3766,28 +3766,28 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>2023-10-02 20:26:07</v>
+        <v>2023-10-07 07:22:45</v>
       </c>
       <c r="B123">
-        <v>28.85</v>
+        <v>30</v>
       </c>
       <c r="C123">
-        <v>38.15</v>
+        <v>44.98</v>
       </c>
       <c r="D123">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E123">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="F123">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G123">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H123">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I123">
         <v>11</v>
@@ -3795,173 +3795,173 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>2023-10-03 00:05:53</v>
+        <v>2023-10-07 12:32:45</v>
       </c>
       <c r="B124">
-        <v>28.85</v>
+        <v>29.8</v>
       </c>
       <c r="C124">
-        <v>38.15</v>
+        <v>44.98</v>
       </c>
       <c r="D124">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E124">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="F124">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G124">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H124">
-        <v>27</v>
+        <v>28.7</v>
       </c>
       <c r="I124">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>2023-10-03 05:12:33</v>
+        <v>2023-10-07 17:42:45</v>
       </c>
       <c r="B125">
-        <v>28.85</v>
+        <v>31.48</v>
       </c>
       <c r="C125">
-        <v>42.7</v>
+        <v>44.98</v>
       </c>
       <c r="D125">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E125">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="F125">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G125">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H125">
-        <v>27</v>
+        <v>28.9</v>
       </c>
       <c r="I125">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>2023-10-03 10:22:31</v>
+        <v>2023-10-07 22:52:45</v>
       </c>
       <c r="B126">
+        <v>30.9</v>
+      </c>
+      <c r="C126">
+        <v>44.98</v>
+      </c>
+      <c r="D126">
+        <v>87</v>
+      </c>
+      <c r="E126">
+        <v>0.04</v>
+      </c>
+      <c r="F126">
+        <v>0.03</v>
+      </c>
+      <c r="G126">
+        <v>18</v>
+      </c>
+      <c r="H126">
         <v>29</v>
       </c>
-      <c r="C126">
-        <v>42.7</v>
-      </c>
-      <c r="D126">
-        <v>85</v>
-      </c>
-      <c r="E126">
-        <v>0.02</v>
-      </c>
-      <c r="F126">
-        <v>0.02</v>
-      </c>
-      <c r="G126">
-        <v>21</v>
-      </c>
-      <c r="H126">
-        <v>28</v>
-      </c>
       <c r="I126">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>2023-10-03 15:32:31</v>
+        <v>2023-10-08 04:02:51</v>
       </c>
       <c r="B127">
-        <v>28.85</v>
+        <v>30</v>
       </c>
       <c r="C127">
-        <v>42.7</v>
+        <v>45.18</v>
       </c>
       <c r="D127">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E127">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="F127">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G127">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H127">
-        <v>28.6</v>
+        <v>29</v>
       </c>
       <c r="I127">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>2023-10-03 20:42:36</v>
+        <v>2023-10-08 09:14:23</v>
       </c>
       <c r="B128">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="C128">
-        <v>42.7</v>
+        <v>45.18</v>
       </c>
       <c r="D128">
         <v>86</v>
       </c>
       <c r="E128">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="F128">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G128">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H128">
-        <v>28.6</v>
+        <v>29</v>
       </c>
       <c r="I128">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>2023-10-04 01:52:36</v>
+        <v>2023-10-08 14:22:59</v>
       </c>
       <c r="B129">
         <v>30</v>
       </c>
       <c r="C129">
-        <v>42.7</v>
+        <v>45.18</v>
       </c>
       <c r="D129">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E129">
         <v>0.02</v>
       </c>
       <c r="F129">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G129">
         <v>20</v>
       </c>
       <c r="H129">
-        <v>28.6</v>
+        <v>29.2</v>
       </c>
       <c r="I129">
         <v>11</v>
@@ -3969,57 +3969,57 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>2023-10-04 07:02:36</v>
+        <v>2023-10-08 19:32:57</v>
       </c>
       <c r="B130">
-        <v>29.9</v>
+        <v>30.9</v>
       </c>
       <c r="C130">
-        <v>43.03</v>
+        <v>45.18</v>
       </c>
       <c r="D130">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E130">
         <v>0.02</v>
       </c>
       <c r="F130">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G130">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H130">
-        <v>28.6</v>
+        <v>29.2</v>
       </c>
       <c r="I130">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>2023-10-04 12:12:34</v>
+        <v>2023-10-09 00:44:14</v>
       </c>
       <c r="B131">
-        <v>26.6</v>
+        <v>30.8</v>
       </c>
       <c r="C131">
-        <v>43.03</v>
+        <v>45.18</v>
       </c>
       <c r="D131">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E131">
         <v>0.02</v>
       </c>
       <c r="F131">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G131">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H131">
-        <v>28.6</v>
+        <v>29.2</v>
       </c>
       <c r="I131">
         <v>12</v>
@@ -4027,28 +4027,28 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>2023-10-04 17:22:33</v>
+        <v>2023-10-09 04:20:53</v>
       </c>
       <c r="B132">
-        <v>29.6</v>
+        <v>30.8</v>
       </c>
       <c r="C132">
-        <v>43.03</v>
+        <v>40.95</v>
       </c>
       <c r="D132">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="E132">
         <v>0.02</v>
       </c>
       <c r="F132">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G132">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H132">
-        <v>28.8</v>
+        <v>29.2</v>
       </c>
       <c r="I132">
         <v>12</v>
@@ -4056,28 +4056,28 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>2023-10-04 22:32:45</v>
+        <v>2023-10-09 07:59:05</v>
       </c>
       <c r="B133">
-        <v>29.6</v>
+        <v>30.8</v>
       </c>
       <c r="C133">
-        <v>43.03</v>
+        <v>40.95</v>
       </c>
       <c r="D133">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E133">
         <v>0.02</v>
       </c>
       <c r="F133">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G133">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H133">
-        <v>28.8</v>
+        <v>29.2</v>
       </c>
       <c r="I133">
         <v>12</v>
@@ -4085,19 +4085,19 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>2023-10-05 03:42:41</v>
+        <v>2023-10-09 11:38:07</v>
       </c>
       <c r="B134">
-        <v>30</v>
+        <v>30.6</v>
       </c>
       <c r="C134">
-        <v>44.4</v>
+        <v>40.95</v>
       </c>
       <c r="D134">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E134">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F134">
         <v>0.02</v>
@@ -4106,123 +4106,123 @@
         <v>18</v>
       </c>
       <c r="H134">
-        <v>28.8</v>
+        <v>29.2</v>
       </c>
       <c r="I134">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>2023-10-05 08:52:40</v>
+        <v>2023-10-09 15:16:15</v>
       </c>
       <c r="B135">
-        <v>29.9</v>
+        <v>30.8</v>
       </c>
       <c r="C135">
-        <v>44.4</v>
+        <v>40.95</v>
       </c>
       <c r="D135">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E135">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F135">
         <v>0.02</v>
       </c>
       <c r="G135">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H135">
-        <v>28.8</v>
+        <v>29.2</v>
       </c>
       <c r="I135">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>2023-10-05 14:02:55</v>
+        <v>2023-10-09 18:52:07</v>
       </c>
       <c r="B136">
-        <v>29.9</v>
+        <v>30.6</v>
       </c>
       <c r="C136">
-        <v>44.4</v>
+        <v>40.95</v>
       </c>
       <c r="D136">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E136">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F136">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G136">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H136">
-        <v>28.9</v>
+        <v>29.3</v>
       </c>
       <c r="I136">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>2023-10-05 19:12:48</v>
+        <v>2023-10-09 22:32:33</v>
       </c>
       <c r="B137">
-        <v>29.9</v>
+        <v>30.7</v>
       </c>
       <c r="C137">
-        <v>44.4</v>
+        <v>40.95</v>
       </c>
       <c r="D137">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E137">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F137">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G137">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H137">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="I137">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>2023-10-06 00:22:48</v>
+        <v>2023-10-09 22:40:17</v>
       </c>
       <c r="B138">
-        <v>30</v>
+        <v>30.7</v>
       </c>
       <c r="C138">
-        <v>44.4</v>
+        <v>40.95</v>
       </c>
       <c r="D138">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E138">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F138">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G138">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H138">
-        <v>29</v>
+        <v>29.3</v>
       </c>
       <c r="I138">
         <v>12</v>
@@ -4230,57 +4230,57 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>2023-10-06 05:33:16</v>
+        <v>2023-10-10 02:18:42</v>
       </c>
       <c r="B139">
-        <v>31</v>
+        <v>30.7</v>
       </c>
       <c r="C139">
-        <v>44.27</v>
+        <v>45.56</v>
       </c>
       <c r="D139">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E139">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F139">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G139">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H139">
-        <v>29.1</v>
+        <v>29.4</v>
       </c>
       <c r="I139">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>2023-10-06 10:42:37</v>
+        <v>2023-10-10 05:58:49</v>
       </c>
       <c r="B140">
-        <v>31</v>
+        <v>30.7</v>
       </c>
       <c r="C140">
-        <v>44.27</v>
+        <v>45.56</v>
       </c>
       <c r="D140">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E140">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F140">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G140">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H140">
-        <v>29</v>
+        <v>29.4</v>
       </c>
       <c r="I140">
         <v>12</v>
@@ -4288,28 +4288,28 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>2023-10-06 15:52:37</v>
+        <v>2023-10-10 09:40:30</v>
       </c>
       <c r="B141">
-        <v>29.9</v>
+        <v>30.5</v>
       </c>
       <c r="C141">
-        <v>44.27</v>
+        <v>45.56</v>
       </c>
       <c r="D141">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E141">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F141">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G141">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H141">
-        <v>29</v>
+        <v>29.4</v>
       </c>
       <c r="I141">
         <v>12</v>
@@ -4317,144 +4317,144 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>2023-10-06 21:02:51</v>
+        <v>2023-10-10 13:18:17</v>
       </c>
       <c r="B142">
-        <v>30</v>
+        <v>30.4</v>
       </c>
       <c r="C142">
-        <v>44.27</v>
+        <v>45.56</v>
       </c>
       <c r="D142">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E142">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F142">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G142">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H142">
-        <v>29</v>
+        <v>29.3</v>
       </c>
       <c r="I142">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>2023-10-07 02:12:45</v>
+        <v>2023-10-10 16:54:45</v>
       </c>
       <c r="B143">
-        <v>30</v>
+        <v>30.4</v>
       </c>
       <c r="C143">
-        <v>44.98</v>
+        <v>45.56</v>
       </c>
       <c r="D143">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E143">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F143">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G143">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H143">
-        <v>29</v>
+        <v>29.5</v>
       </c>
       <c r="I143">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>2023-10-07 07:22:45</v>
+        <v>2023-10-10 20:30:40</v>
       </c>
       <c r="B144">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="C144">
-        <v>44.98</v>
+        <v>45.56</v>
       </c>
       <c r="D144">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="E144">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F144">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G144">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H144">
-        <v>29</v>
+        <v>29.6</v>
       </c>
       <c r="I144">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>2023-10-07 12:32:45</v>
+        <v>2023-10-11 00:10:22</v>
       </c>
       <c r="B145">
-        <v>29.8</v>
+        <v>30.5</v>
       </c>
       <c r="C145">
-        <v>44.98</v>
+        <v>45.56</v>
       </c>
       <c r="D145">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E145">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F145">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G145">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H145">
-        <v>28.7</v>
+        <v>30</v>
       </c>
       <c r="I145">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>2023-10-07 17:42:45</v>
+        <v>2023-10-11 03:47:10</v>
       </c>
       <c r="B146">
-        <v>31.48</v>
+        <v>30.8</v>
       </c>
       <c r="C146">
-        <v>44.98</v>
+        <v>40.95</v>
       </c>
       <c r="D146">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E146">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F146">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G146">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H146">
-        <v>28.9</v>
+        <v>30</v>
       </c>
       <c r="I146">
         <v>11</v>
@@ -4462,248 +4462,248 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>2023-10-07 22:52:45</v>
+        <v>2023-10-11 07:22:25</v>
       </c>
       <c r="B147">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="C147">
-        <v>44.98</v>
+        <v>40.95</v>
       </c>
       <c r="D147">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E147">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F147">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G147">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H147">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I147">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>2023-10-08 04:02:51</v>
+        <v>2023-10-11 11:01:03</v>
       </c>
       <c r="B148">
+        <v>31.52</v>
+      </c>
+      <c r="C148">
+        <v>40.95</v>
+      </c>
+      <c r="D148">
+        <v>90</v>
+      </c>
+      <c r="E148">
+        <v>0.03</v>
+      </c>
+      <c r="F148">
+        <v>0.02</v>
+      </c>
+      <c r="G148">
+        <v>23</v>
+      </c>
+      <c r="H148">
         <v>30</v>
       </c>
-      <c r="C148">
-        <v>45.18</v>
-      </c>
-      <c r="D148">
-        <v>86</v>
-      </c>
-      <c r="E148">
-        <v>0.04</v>
-      </c>
-      <c r="F148">
-        <v>0.03</v>
-      </c>
-      <c r="G148">
-        <v>18</v>
-      </c>
-      <c r="H148">
-        <v>29</v>
-      </c>
       <c r="I148">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>2023-10-08 09:14:23</v>
+        <v>2023-10-11 14:42:01</v>
       </c>
       <c r="B149">
+        <v>31</v>
+      </c>
+      <c r="C149">
+        <v>40.95</v>
+      </c>
+      <c r="D149">
+        <v>95</v>
+      </c>
+      <c r="E149">
+        <v>0.03</v>
+      </c>
+      <c r="F149">
+        <v>0.02</v>
+      </c>
+      <c r="G149">
+        <v>23</v>
+      </c>
+      <c r="H149">
         <v>30</v>
       </c>
-      <c r="C149">
-        <v>45.18</v>
-      </c>
-      <c r="D149">
-        <v>86</v>
-      </c>
-      <c r="E149">
-        <v>0.04</v>
-      </c>
-      <c r="F149">
-        <v>0.03</v>
-      </c>
-      <c r="G149">
-        <v>18</v>
-      </c>
-      <c r="H149">
-        <v>29</v>
-      </c>
       <c r="I149">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>2023-10-08 14:22:59</v>
+        <v>2023-10-11 18:22:16</v>
       </c>
       <c r="B150">
         <v>30</v>
       </c>
       <c r="C150">
-        <v>45.18</v>
+        <v>40.95</v>
       </c>
       <c r="D150">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E150">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F150">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G150">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H150">
-        <v>29.2</v>
+        <v>30</v>
       </c>
       <c r="I150">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>2023-10-08 19:32:57</v>
+        <v>2023-10-11 22:01:30</v>
       </c>
       <c r="B151">
         <v>30.9</v>
       </c>
       <c r="C151">
-        <v>45.18</v>
+        <v>40.95</v>
       </c>
       <c r="D151">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E151">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F151">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G151">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H151">
-        <v>29.2</v>
+        <v>30</v>
       </c>
       <c r="I151">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>2023-10-09 00:44:14</v>
+        <v>2023-10-12 01:41:18</v>
       </c>
       <c r="B152">
-        <v>30.8</v>
+        <v>31</v>
       </c>
       <c r="C152">
-        <v>45.18</v>
+        <v>40.95</v>
       </c>
       <c r="D152">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E152">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F152">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G152">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H152">
-        <v>29.2</v>
+        <v>30</v>
       </c>
       <c r="I152">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>2023-10-09 04:20:53</v>
+        <v>2023-10-12 05:18:24</v>
       </c>
       <c r="B153">
-        <v>30.8</v>
+        <v>31</v>
       </c>
       <c r="C153">
-        <v>40.95</v>
+        <v>41.93</v>
       </c>
       <c r="D153">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E153">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F153">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G153">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H153">
-        <v>29.2</v>
+        <v>30</v>
       </c>
       <c r="I153">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>2023-10-09 07:59:05</v>
+        <v>2023-10-12 08:55:44</v>
       </c>
       <c r="B154">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="C154">
-        <v>40.95</v>
+        <v>41.93</v>
       </c>
       <c r="D154">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E154">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F154">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G154">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H154">
-        <v>29.2</v>
+        <v>30</v>
       </c>
       <c r="I154">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>2023-10-09 11:38:07</v>
+        <v>2023-10-12 12:34:10</v>
       </c>
       <c r="B155">
-        <v>30.6</v>
+        <v>30.9</v>
       </c>
       <c r="C155">
-        <v>40.95</v>
+        <v>41.93</v>
       </c>
       <c r="D155">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E155">
         <v>0.03</v>
@@ -4712,27 +4712,27 @@
         <v>0.02</v>
       </c>
       <c r="G155">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H155">
-        <v>29.2</v>
+        <v>30.2</v>
       </c>
       <c r="I155">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>2023-10-09 15:16:15</v>
+        <v>2023-10-12 12:40:15</v>
       </c>
       <c r="B156">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="C156">
-        <v>40.95</v>
+        <v>41.93</v>
       </c>
       <c r="D156">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E156">
         <v>0.03</v>
@@ -4741,126 +4741,126 @@
         <v>0.02</v>
       </c>
       <c r="G156">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H156">
-        <v>29.2</v>
+        <v>30.2</v>
       </c>
       <c r="I156">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>2023-10-09 18:52:07</v>
+        <v>2023-10-12 16:19:57</v>
       </c>
       <c r="B157">
-        <v>30.6</v>
+        <v>30</v>
       </c>
       <c r="C157">
-        <v>40.95</v>
+        <v>41.93</v>
       </c>
       <c r="D157">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E157">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F157">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G157">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H157">
-        <v>29.3</v>
+        <v>30.2</v>
       </c>
       <c r="I157">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>2023-10-09 22:32:33</v>
+        <v>2023-10-12 20:00:47</v>
       </c>
       <c r="B158">
-        <v>30.7</v>
+        <v>30</v>
       </c>
       <c r="C158">
-        <v>40.95</v>
+        <v>41.93</v>
       </c>
       <c r="D158">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="E158">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F158">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G158">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H158">
-        <v>29.3</v>
+        <v>30.1</v>
       </c>
       <c r="I158">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>2023-10-09 22:40:17</v>
+        <v>2023-10-12 23:42:02</v>
       </c>
       <c r="B159">
-        <v>30.7</v>
+        <v>30</v>
       </c>
       <c r="C159">
-        <v>40.95</v>
+        <v>41.93</v>
       </c>
       <c r="D159">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E159">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F159">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G159">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H159">
-        <v>29.3</v>
+        <v>30.1</v>
       </c>
       <c r="I159">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>2023-10-10 02:18:42</v>
+        <v>2023-10-13 03:20:09</v>
       </c>
       <c r="B160">
-        <v>30.7</v>
+        <v>30.9</v>
       </c>
       <c r="C160">
-        <v>45.56</v>
+        <v>44.4</v>
       </c>
       <c r="D160">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E160">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F160">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G160">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H160">
-        <v>29.4</v>
+        <v>30.1</v>
       </c>
       <c r="I160">
         <v>12</v>
@@ -4868,16 +4868,16 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>2023-10-10 05:58:49</v>
+        <v>2023-10-13 06:56:22</v>
       </c>
       <c r="B161">
-        <v>30.7</v>
+        <v>30.9</v>
       </c>
       <c r="C161">
-        <v>45.56</v>
+        <v>44.4</v>
       </c>
       <c r="D161">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="E161">
         <v>0.03</v>
@@ -4886,10 +4886,10 @@
         <v>0.02</v>
       </c>
       <c r="G161">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H161">
-        <v>29.4</v>
+        <v>30.1</v>
       </c>
       <c r="I161">
         <v>12</v>
@@ -4897,16 +4897,16 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>2023-10-10 09:40:30</v>
+        <v>2023-10-13 10:30:53</v>
       </c>
       <c r="B162">
-        <v>30.5</v>
+        <v>30.8</v>
       </c>
       <c r="C162">
-        <v>45.56</v>
+        <v>44.4</v>
       </c>
       <c r="D162">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E162">
         <v>0.03</v>
@@ -4915,10 +4915,10 @@
         <v>0.02</v>
       </c>
       <c r="G162">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H162">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="I162">
         <v>12</v>
@@ -4926,16 +4926,16 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>2023-10-10 13:18:17</v>
+        <v>2023-10-13 14:11:38</v>
       </c>
       <c r="B163">
-        <v>30.4</v>
+        <v>30.9</v>
       </c>
       <c r="C163">
-        <v>45.56</v>
+        <v>44.4</v>
       </c>
       <c r="D163">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E163">
         <v>0.03</v>
@@ -4944,27 +4944,27 @@
         <v>0.02</v>
       </c>
       <c r="G163">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H163">
-        <v>29.3</v>
+        <v>29.6</v>
       </c>
       <c r="I163">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>2023-10-10 16:54:45</v>
+        <v>2023-10-13 17:49:49</v>
       </c>
       <c r="B164">
         <v>30.4</v>
       </c>
       <c r="C164">
-        <v>45.56</v>
+        <v>44.4</v>
       </c>
       <c r="D164">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E164">
         <v>0.03</v>
@@ -4973,27 +4973,27 @@
         <v>0.02</v>
       </c>
       <c r="G164">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H164">
         <v>29.5</v>
       </c>
       <c r="I164">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>2023-10-10 20:30:40</v>
+        <v>2023-10-13 21:25:01</v>
       </c>
       <c r="B165">
-        <v>29.9</v>
+        <v>30.3</v>
       </c>
       <c r="C165">
-        <v>45.56</v>
+        <v>44.4</v>
       </c>
       <c r="D165">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E165">
         <v>0.03</v>
@@ -5002,10 +5002,10 @@
         <v>0.02</v>
       </c>
       <c r="G165">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H165">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="I165">
         <v>10</v>
@@ -5013,16 +5013,16 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>2023-10-11 00:10:22</v>
+        <v>2023-10-13 21:30:58</v>
       </c>
       <c r="B166">
-        <v>30.5</v>
+        <v>30.3</v>
       </c>
       <c r="C166">
-        <v>45.56</v>
+        <v>44.4</v>
       </c>
       <c r="D166">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="E166">
         <v>0.03</v>
@@ -5031,27 +5031,27 @@
         <v>0.02</v>
       </c>
       <c r="G166">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H166">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="I166">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>2023-10-11 03:47:10</v>
+        <v>2023-10-14 01:10:48</v>
       </c>
       <c r="B167">
-        <v>30.8</v>
+        <v>30</v>
       </c>
       <c r="C167">
-        <v>40.95</v>
+        <v>44.4</v>
       </c>
       <c r="D167">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E167">
         <v>0.03</v>
@@ -5060,27 +5060,27 @@
         <v>0.02</v>
       </c>
       <c r="G167">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H167">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="I167">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>2023-10-11 07:22:25</v>
+        <v>2023-10-14 04:50:30</v>
       </c>
       <c r="B168">
-        <v>30.8</v>
+        <v>30</v>
       </c>
       <c r="C168">
-        <v>40.95</v>
+        <v>41.34</v>
       </c>
       <c r="D168">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E168">
         <v>0.03</v>
@@ -5089,27 +5089,27 @@
         <v>0.02</v>
       </c>
       <c r="G168">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H168">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="I168">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>2023-10-11 11:01:03</v>
+        <v>2023-10-14 08:31:19</v>
       </c>
       <c r="B169">
-        <v>31.52</v>
+        <v>30</v>
       </c>
       <c r="C169">
-        <v>40.95</v>
+        <v>41.34</v>
       </c>
       <c r="D169">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E169">
         <v>0.03</v>
@@ -5118,27 +5118,27 @@
         <v>0.02</v>
       </c>
       <c r="G169">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H169">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="I169">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>2023-10-11 14:42:01</v>
+        <v>2023-10-14 12:10:13</v>
       </c>
       <c r="B170">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C170">
-        <v>40.95</v>
+        <v>41.34</v>
       </c>
       <c r="D170">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E170">
         <v>0.03</v>
@@ -5147,27 +5147,27 @@
         <v>0.02</v>
       </c>
       <c r="G170">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H170">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="I170">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>2023-10-11 18:22:16</v>
+        <v>2023-10-14 15:44:14</v>
       </c>
       <c r="B171">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="C171">
-        <v>40.95</v>
+        <v>41.34</v>
       </c>
       <c r="D171">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E171">
         <v>0.03</v>
@@ -5176,27 +5176,27 @@
         <v>0.02</v>
       </c>
       <c r="G171">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H171">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="I171">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>2023-10-11 22:01:30</v>
+        <v>2023-10-14 19:19:39</v>
       </c>
       <c r="B172">
-        <v>30.9</v>
+        <v>29.9</v>
       </c>
       <c r="C172">
-        <v>40.95</v>
+        <v>41.34</v>
       </c>
       <c r="D172">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E172">
         <v>0.03</v>
@@ -5205,24 +5205,24 @@
         <v>0.02</v>
       </c>
       <c r="G172">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H172">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="I172">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>2023-10-12 01:41:18</v>
+        <v>2023-10-14 22:57:05</v>
       </c>
       <c r="B173">
-        <v>31</v>
+        <v>29.6</v>
       </c>
       <c r="C173">
-        <v>40.95</v>
+        <v>41.34</v>
       </c>
       <c r="D173">
         <v>92</v>
@@ -5234,24 +5234,24 @@
         <v>0.02</v>
       </c>
       <c r="G173">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H173">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="I173">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>2023-10-12 05:18:24</v>
+        <v>2023-10-15 02:34:14</v>
       </c>
       <c r="B174">
-        <v>31</v>
+        <v>30.2</v>
       </c>
       <c r="C174">
-        <v>41.93</v>
+        <v>43.94</v>
       </c>
       <c r="D174">
         <v>91</v>
@@ -5263,27 +5263,27 @@
         <v>0.02</v>
       </c>
       <c r="G174">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H174">
-        <v>30</v>
+        <v>29.7</v>
       </c>
       <c r="I174">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>2023-10-12 08:55:44</v>
+        <v>2023-10-15 06:13:06</v>
       </c>
       <c r="B175">
-        <v>30.9</v>
+        <v>30.2</v>
       </c>
       <c r="C175">
-        <v>41.93</v>
+        <v>43.94</v>
       </c>
       <c r="D175">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E175">
         <v>0.03</v>
@@ -5292,27 +5292,27 @@
         <v>0.02</v>
       </c>
       <c r="G175">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H175">
-        <v>30</v>
+        <v>29.7</v>
       </c>
       <c r="I175">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>2023-10-12 12:34:10</v>
+        <v>2023-10-15 09:55:59</v>
       </c>
       <c r="B176">
-        <v>30.9</v>
+        <v>30.2</v>
       </c>
       <c r="C176">
-        <v>41.93</v>
+        <v>43.94</v>
       </c>
       <c r="D176">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E176">
         <v>0.03</v>
@@ -5321,27 +5321,27 @@
         <v>0.02</v>
       </c>
       <c r="G176">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H176">
-        <v>30.2</v>
+        <v>29.7</v>
       </c>
       <c r="I176">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>2023-10-12 12:40:15</v>
+        <v>2023-10-15 13:36:48</v>
       </c>
       <c r="B177">
-        <v>30.9</v>
+        <v>30.1</v>
       </c>
       <c r="C177">
-        <v>41.93</v>
+        <v>43.94</v>
       </c>
       <c r="D177">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E177">
         <v>0.03</v>
@@ -5350,10 +5350,10 @@
         <v>0.02</v>
       </c>
       <c r="G177">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H177">
-        <v>30.2</v>
+        <v>29.5</v>
       </c>
       <c r="I177">
         <v>10</v>
@@ -5361,28 +5361,28 @@
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>2023-10-12 16:19:57</v>
+        <v>2023-10-15 13:44:20</v>
       </c>
       <c r="B178">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="C178">
-        <v>41.93</v>
+        <v>43.94</v>
       </c>
       <c r="D178">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E178">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F178">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G178">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H178">
-        <v>30.2</v>
+        <v>29.5</v>
       </c>
       <c r="I178">
         <v>10</v>
@@ -5390,28 +5390,28 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>2023-10-12 20:00:47</v>
+        <v>2023-10-15 17:21:39</v>
       </c>
       <c r="B179">
-        <v>30</v>
+        <v>29.7</v>
       </c>
       <c r="C179">
-        <v>41.93</v>
+        <v>43.94</v>
       </c>
       <c r="D179">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E179">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F179">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G179">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H179">
-        <v>30.1</v>
+        <v>27</v>
       </c>
       <c r="I179">
         <v>9</v>
@@ -5419,28 +5419,28 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>2023-10-12 23:42:02</v>
+        <v>2023-10-15 20:58:38</v>
       </c>
       <c r="B180">
-        <v>30</v>
+        <v>29.7</v>
       </c>
       <c r="C180">
-        <v>41.93</v>
+        <v>43.94</v>
       </c>
       <c r="D180">
         <v>97</v>
       </c>
       <c r="E180">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F180">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G180">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H180">
-        <v>30.1</v>
+        <v>27.2</v>
       </c>
       <c r="I180">
         <v>11</v>
@@ -5448,45 +5448,45 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>2023-10-13 03:20:09</v>
+        <v>2023-10-16 00:35:58</v>
       </c>
       <c r="B181">
-        <v>30.9</v>
+        <v>29.7</v>
       </c>
       <c r="C181">
-        <v>44.4</v>
+        <v>43.94</v>
       </c>
       <c r="D181">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E181">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F181">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G181">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H181">
-        <v>30.1</v>
+        <v>27</v>
       </c>
       <c r="I181">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>2023-10-13 06:56:22</v>
+        <v>2023-10-16 04:13:23</v>
       </c>
       <c r="B182">
-        <v>30.9</v>
+        <v>29.7</v>
       </c>
       <c r="C182">
-        <v>44.4</v>
+        <v>42.77</v>
       </c>
       <c r="D182">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E182">
         <v>0.03</v>
@@ -5495,27 +5495,27 @@
         <v>0.02</v>
       </c>
       <c r="G182">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H182">
-        <v>30.1</v>
+        <v>27</v>
       </c>
       <c r="I182">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>2023-10-13 10:30:53</v>
+        <v>2023-10-16 07:53:03</v>
       </c>
       <c r="B183">
-        <v>30.8</v>
+        <v>29.5</v>
       </c>
       <c r="C183">
-        <v>44.4</v>
+        <v>42.77</v>
       </c>
       <c r="D183">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E183">
         <v>0.03</v>
@@ -5524,27 +5524,27 @@
         <v>0.02</v>
       </c>
       <c r="G183">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H183">
-        <v>29.6</v>
+        <v>27.2</v>
       </c>
       <c r="I183">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>2023-10-13 14:11:38</v>
+        <v>2023-10-16 11:34:03</v>
       </c>
       <c r="B184">
-        <v>30.9</v>
+        <v>29</v>
       </c>
       <c r="C184">
-        <v>44.4</v>
+        <v>42.77</v>
       </c>
       <c r="D184">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E184">
         <v>0.03</v>
@@ -5553,10 +5553,10 @@
         <v>0.02</v>
       </c>
       <c r="G184">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H184">
-        <v>29.6</v>
+        <v>27.2</v>
       </c>
       <c r="I184">
         <v>11</v>
@@ -5564,16 +5564,16 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>2023-10-13 17:49:49</v>
+        <v>2023-10-16 15:13:31</v>
       </c>
       <c r="B185">
-        <v>30.4</v>
+        <v>29.4</v>
       </c>
       <c r="C185">
-        <v>44.4</v>
+        <v>42.77</v>
       </c>
       <c r="D185">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E185">
         <v>0.03</v>
@@ -5582,593 +5582,564 @@
         <v>0.02</v>
       </c>
       <c r="G185">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H185">
-        <v>29.5</v>
+        <v>27.3</v>
       </c>
       <c r="I185">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>2023-10-13 21:25:01</v>
+        <v>2023-10-16 18:52:38</v>
       </c>
       <c r="B186">
-        <v>30.3</v>
+        <v>29.4</v>
       </c>
       <c r="C186">
-        <v>44.4</v>
+        <v>42.77</v>
       </c>
       <c r="D186">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="E186">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F186">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G186">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H186">
-        <v>29.5</v>
+        <v>27.3</v>
       </c>
       <c r="I186">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>2023-10-13 21:30:58</v>
+        <v>2023-10-16 22:33:53</v>
       </c>
       <c r="B187">
-        <v>30.3</v>
+        <v>29.4</v>
       </c>
       <c r="C187">
-        <v>44.4</v>
+        <v>42.77</v>
       </c>
       <c r="D187">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="E187">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F187">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G187">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H187">
-        <v>29.5</v>
+        <v>27.4</v>
       </c>
       <c r="I187">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>2023-10-14 01:10:48</v>
+        <v>2023-10-17 02:13:28</v>
       </c>
       <c r="B188">
-        <v>30</v>
+        <v>29.4</v>
       </c>
       <c r="C188">
         <v>44.4</v>
       </c>
       <c r="D188">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="E188">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F188">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G188">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H188">
-        <v>29.5</v>
+        <v>27.4</v>
       </c>
       <c r="I188">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>2023-10-14 04:50:30</v>
+        <v>2023-10-17 05:52:37</v>
       </c>
       <c r="B189">
-        <v>30</v>
+        <v>29.4</v>
       </c>
       <c r="C189">
-        <v>41.34</v>
+        <v>44.4</v>
       </c>
       <c r="D189">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="E189">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F189">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G189">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H189">
-        <v>29.5</v>
+        <v>27.4</v>
       </c>
       <c r="I189">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>2023-10-14 08:31:19</v>
+        <v>2023-10-17 09:30:48</v>
       </c>
       <c r="B190">
-        <v>30</v>
+        <v>29.4</v>
       </c>
       <c r="C190">
-        <v>41.34</v>
+        <v>44.4</v>
       </c>
       <c r="D190">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="E190">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F190">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G190">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H190">
-        <v>29.5</v>
+        <v>27.6</v>
       </c>
       <c r="I190">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>2023-10-14 12:10:13</v>
+        <v>2023-10-17 13:06:55</v>
       </c>
       <c r="B191">
-        <v>30</v>
+        <v>28.3</v>
       </c>
       <c r="C191">
-        <v>41.34</v>
+        <v>44.4</v>
       </c>
       <c r="D191">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="E191">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F191">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G191">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H191">
-        <v>29.5</v>
+        <v>27.6</v>
       </c>
       <c r="I191">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>2023-10-14 15:44:14</v>
+        <v>2023-10-17 16:44:57</v>
       </c>
       <c r="B192">
-        <v>30.2</v>
+        <v>28.8</v>
       </c>
       <c r="C192">
-        <v>41.34</v>
+        <v>44.4</v>
       </c>
       <c r="D192">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="E192">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F192">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G192">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H192">
-        <v>29.5</v>
+        <v>27.6</v>
       </c>
       <c r="I192">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>2023-10-14 19:19:39</v>
+        <v>2023-10-17 20:25:07</v>
       </c>
       <c r="B193">
-        <v>29.9</v>
+        <v>28.8</v>
       </c>
       <c r="C193">
-        <v>41.34</v>
+        <v>44.4</v>
       </c>
       <c r="D193">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="E193">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F193">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G193">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H193">
-        <v>29.5</v>
+        <v>27.6</v>
       </c>
       <c r="I193">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>2023-10-14 22:57:05</v>
+        <v>2023-10-18 00:05:57</v>
       </c>
       <c r="B194">
-        <v>29.6</v>
+        <v>28.9</v>
       </c>
       <c r="C194">
-        <v>41.34</v>
+        <v>44.4</v>
       </c>
       <c r="D194">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="E194">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F194">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G194">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H194">
-        <v>29.5</v>
+        <v>27.6</v>
       </c>
       <c r="I194">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>2023-10-15 02:34:14</v>
+        <v>2023-10-18 03:45:15</v>
       </c>
       <c r="B195">
-        <v>30.2</v>
+        <v>28.9</v>
       </c>
       <c r="C195">
-        <v>43.94</v>
+        <v>42.77</v>
       </c>
       <c r="D195">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="E195">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F195">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G195">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H195">
-        <v>29.7</v>
+        <v>27</v>
       </c>
       <c r="I195">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>2023-10-15 06:13:06</v>
+        <v>2023-10-18 07:25:11</v>
       </c>
       <c r="B196">
-        <v>30.2</v>
+        <v>28.9</v>
       </c>
       <c r="C196">
-        <v>43.94</v>
+        <v>42.77</v>
       </c>
       <c r="D196">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="E196">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F196">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G196">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H196">
-        <v>29.7</v>
+        <v>27</v>
       </c>
       <c r="I196">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>2023-10-15 09:55:59</v>
+        <v>2023-10-18 11:02:04</v>
       </c>
       <c r="B197">
-        <v>30.2</v>
+        <v>28.6</v>
       </c>
       <c r="C197">
-        <v>43.94</v>
+        <v>42.77</v>
       </c>
       <c r="D197">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="E197">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F197">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G197">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H197">
-        <v>29.7</v>
+        <v>25.2</v>
       </c>
       <c r="I197">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>2023-10-15 13:36:48</v>
+        <v>2023-10-18 14:40:34</v>
       </c>
       <c r="B198">
-        <v>30.1</v>
+        <v>28.4</v>
       </c>
       <c r="C198">
-        <v>43.94</v>
+        <v>42.77</v>
       </c>
       <c r="D198">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="E198">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F198">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G198">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H198">
-        <v>29.5</v>
+        <v>25</v>
       </c>
       <c r="I198">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>2023-10-15 13:44:20</v>
+        <v>2023-10-18 18:19:08</v>
       </c>
       <c r="B199">
-        <v>30.1</v>
+        <v>27.8</v>
       </c>
       <c r="C199">
-        <v>43.94</v>
+        <v>42.77</v>
       </c>
       <c r="D199">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="E199">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F199">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G199">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H199">
-        <v>29.5</v>
+        <v>24.5</v>
       </c>
       <c r="I199">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>2023-10-15 17:21:39</v>
+        <v>2023-10-18 18:23:44</v>
       </c>
       <c r="B200">
-        <v>29.7</v>
+        <v>27.8</v>
       </c>
       <c r="C200">
-        <v>43.94</v>
+        <v>42.77</v>
       </c>
       <c r="D200">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="E200">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F200">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G200">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H200">
-        <v>27</v>
+        <v>24.5</v>
       </c>
       <c r="I200">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>2023-10-15 20:58:38</v>
+        <v>2023-10-18 22:02:46</v>
       </c>
       <c r="B201">
-        <v>29.7</v>
+        <v>27.7</v>
       </c>
       <c r="C201">
-        <v>43.94</v>
+        <v>42.77</v>
       </c>
       <c r="D201">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="E201">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F201">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G201">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H201">
-        <v>27.2</v>
+        <v>24.5</v>
       </c>
       <c r="I201">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>2023-10-16 00:35:58</v>
+        <v>2023-10-19 01:39:36</v>
       </c>
       <c r="B202">
-        <v>29.7</v>
+        <v>28.5</v>
       </c>
       <c r="C202">
-        <v>43.94</v>
+        <v>42.77</v>
       </c>
       <c r="D202">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="E202">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F202">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G202">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H202">
-        <v>27</v>
+        <v>24.6</v>
       </c>
       <c r="I202">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>2023-10-16 04:13:23</v>
+        <v>2023-10-19 01:46:05</v>
       </c>
       <c r="B203">
-        <v>29.7</v>
+        <v>28.5</v>
       </c>
       <c r="C203">
         <v>42.77</v>
       </c>
       <c r="D203">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="E203">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F203">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G203">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H203">
-        <v>27</v>
+        <v>24.6</v>
       </c>
       <c r="I203">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>2023-10-16 07:53:03</v>
+        <v>2023-10-19 05:25:23</v>
       </c>
       <c r="B204">
-        <v>29.5</v>
+        <v>28.2</v>
       </c>
       <c r="C204">
-        <v>42.77</v>
+        <v>44.66</v>
       </c>
       <c r="D204">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E204">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F204">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G204">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H204">
-        <v>27.2</v>
+        <v>24.6</v>
       </c>
       <c r="I204">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="str">
-        <v>2023-10-16 11:34:03</v>
-      </c>
-      <c r="B205">
-        <v>29</v>
-      </c>
-      <c r="C205">
-        <v>42.77</v>
-      </c>
-      <c r="D205">
-        <v>104</v>
-      </c>
-      <c r="E205">
-        <v>0.03</v>
-      </c>
-      <c r="F205">
-        <v>0.02</v>
-      </c>
-      <c r="G205">
-        <v>27</v>
-      </c>
-      <c r="H205">
-        <v>27.2</v>
-      </c>
-      <c r="I205">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -6180,7 +6151,7 @@
     <mergeCell ref="A6:H6"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I205"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I204"/>
   </ignoredErrors>
 </worksheet>
 </file>